--- a/premise/data/additional_inventories/lci-fuel_cell.xlsx
+++ b/premise/data/additional_inventories/lci-fuel_cell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8BF28C5-7AEE-3F44-9B95-6C01A038BD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FABFB6-6015-8245-AA03-700DDAA311F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45100" yWindow="-1400" windowWidth="23540" windowHeight="21020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="118">
   <si>
     <t>Database</t>
   </si>
@@ -79,9 +79,6 @@
     <t>kilogram</t>
   </si>
   <si>
-    <t>cutoff</t>
-  </si>
-  <si>
     <t>biosphere</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>negative</t>
   </si>
   <si>
-    <t>simapro category</t>
-  </si>
-  <si>
     <t>market for heat, from steam, in chemical industry</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
   </si>
   <si>
     <t>heat, from steam, in chemical industry</t>
-  </si>
-  <si>
-    <t>Material/Fuels/Synthetic/Infrastructure</t>
   </si>
   <si>
     <t>market for carbon black</t>
@@ -840,41 +831,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T363"/>
+  <dimension ref="A1:T362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="E45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.1640625" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="99.1640625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1">
-        <v>9</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="6"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="7"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -884,24 +879,26 @@
       <c r="I2" s="6"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="6"/>
-      <c r="K3" s="3"/>
+    <row r="3" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>57</v>
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
@@ -912,10 +909,10 @@
     </row>
     <row r="5" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -926,10 +923,10 @@
     </row>
     <row r="6" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -940,10 +937,10 @@
     </row>
     <row r="7" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -954,10 +951,10 @@
     </row>
     <row r="8" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -968,10 +965,10 @@
     </row>
     <row r="9" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -982,10 +979,10 @@
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -995,11 +992,8 @@
       <c r="P10" s="13"/>
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>62</v>
+      <c r="A11" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -1010,223 +1004,215 @@
     </row>
     <row r="12" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" s="8"/>
     </row>
     <row r="13" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="A13" s="12" t="str">
+        <f>B3</f>
+        <v>fuel cell system assembly, 1 kWe, proton exchange membrane (PEM)</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>B8</f>
+        <v>unit</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="12" t="str">
+        <f>B6</f>
+        <v>fuel cell system, 1 kWe, proton exchange membrane (PEM)</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="str">
-        <f>B4</f>
-        <v>fuel cell system assembly, 1 kWe, proton exchange membrane (PEM)</v>
-      </c>
-      <c r="B14" s="12">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="12" t="str">
-        <f>B9</f>
-        <v>unit</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="12" t="str">
-        <f>B7</f>
-        <v>fuel cell system, 1 kWe, proton exchange membrane (PEM)</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="T14" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="17">
+      <c r="A14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="17">
         <f>20000/3800</f>
         <v>5.2631578947368425</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="12">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ref="J15:J16" si="0">LN(B15)</f>
+      <c r="G14" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="12">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J15" si="0">LN(B14)</f>
         <v>1.6607312068216509</v>
       </c>
-      <c r="K15" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L15" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M15" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N15" s="20">
+      <c r="K14" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L14" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M14" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N14" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O15" s="20">
-        <v>2</v>
-      </c>
-      <c r="P15" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q15">
+      <c r="O14" s="20">
+        <v>2</v>
+      </c>
+      <c r="P14" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q14">
         <v>3</v>
       </c>
-      <c r="R15">
-        <f t="shared" ref="R15:R16" si="1">LN(SQRT(EXP(
+      <c r="R14">
+        <f t="shared" ref="R14:R15" si="1">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K15),2)
-+POWER(LN(L15),2)
-+POWER(LN(M15),2)
-+POWER(LN(N15),2)
-+POWER(LN(O15),2)
-+POWER(LN(P15),2)
-+POWER(LN(Q15),2)
++POWER(LN(K14),2)
++POWER(LN(L14),2)
++POWER(LN(M14),2)
++POWER(LN(N14),2)
++POWER(LN(O14),2)
++POWER(LN(P14),2)
++POWER(LN(Q14),2)
 )
 )))</f>
         <v>0.72314801614797197</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="17">
+    <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="12">
-        <v>2</v>
-      </c>
-      <c r="J16">
+      <c r="G15" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="12">
+        <v>2</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L16" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M16" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N16" s="20">
+      <c r="K15" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L15" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M15" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N15" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O16" s="20">
-        <v>2</v>
-      </c>
-      <c r="P16" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q16">
+      <c r="O15" s="20">
+        <v>2</v>
+      </c>
+      <c r="P15" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q15">
         <v>3</v>
       </c>
-      <c r="R16">
+      <c r="R15">
         <f t="shared" si="1"/>
         <v>0.72314801614797197</v>
       </c>
+    </row>
+    <row r="16" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
     </row>
     <row r="17" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="K17" s="13"/>
@@ -1237,6 +1223,12 @@
       <c r="P17" s="13"/>
     </row>
     <row r="18" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
@@ -1245,11 +1237,11 @@
       <c r="P18" s="13"/>
     </row>
     <row r="19" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>63</v>
+      <c r="A19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -1260,10 +1252,10 @@
     </row>
     <row r="20" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -1274,10 +1266,10 @@
     </row>
     <row r="21" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="12">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -1288,10 +1280,10 @@
     </row>
     <row r="22" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -1302,10 +1294,10 @@
     </row>
     <row r="23" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
@@ -1316,10 +1308,10 @@
     </row>
     <row r="24" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -1330,10 +1322,10 @@
     </row>
     <row r="25" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
@@ -1343,11 +1335,8 @@
       <c r="P25" s="13"/>
     </row>
     <row r="26" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>62</v>
+      <c r="A26" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -1358,180 +1347,217 @@
     </row>
     <row r="27" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O27" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S27" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T27" s="8"/>
     </row>
     <row r="28" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="P28" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S28" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="T28" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="A28" s="12" t="str">
+        <f>B18</f>
+        <v>fuel cell stack production, 1 kWe, proton exchange membrane (PEM)</v>
+      </c>
+      <c r="B28" s="12">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="12" t="str">
+        <f>B23</f>
+        <v>unit</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="12" t="str">
+        <f>B21</f>
+        <v>fuel cell stack, 1 kWe, proton exchange membrane (PEM)</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
     </row>
     <row r="29" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="str">
-        <f>B19</f>
-        <v>fuel cell stack production, 1 kWe, proton exchange membrane (PEM)</v>
+      <c r="A29" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="B29" s="12">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="12" t="str">
-        <f>B24</f>
-        <v>unit</v>
+        <v>16</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="12" t="str">
-        <f>B22</f>
-        <v>fuel cell stack, 1 kWe, proton exchange membrane (PEM)</v>
-      </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="T29" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="12">
-        <v>4.5</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I30" s="12">
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ref="J30:J41" si="2">LN(B30)</f>
+      <c r="G29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="12">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ref="J29:J40" si="2">LN(B29)</f>
         <v>1.5040773967762742</v>
       </c>
-      <c r="K30" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L30" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M30" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N30" s="20">
+      <c r="K29" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L29" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M29" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N29" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O30" s="20">
-        <v>2</v>
-      </c>
-      <c r="P30" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q30">
+      <c r="O29" s="20">
+        <v>2</v>
+      </c>
+      <c r="P29" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q29">
         <v>1.05</v>
       </c>
-      <c r="R30">
-        <f t="shared" ref="R30:R41" si="3">LN(SQRT(EXP(
+      <c r="R29">
+        <f t="shared" ref="R29:R40" si="3">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K30),2)
-+POWER(LN(L30),2)
-+POWER(LN(M30),2)
-+POWER(LN(N30),2)
-+POWER(LN(O30),2)
-+POWER(LN(P30),2)
-+POWER(LN(Q30),2)
++POWER(LN(K29),2)
++POWER(LN(L29),2)
++POWER(LN(M29),2)
++POWER(LN(N29),2)
++POWER(LN(O29),2)
++POWER(LN(P29),2)
++POWER(LN(Q29),2)
 )
 )))</f>
         <v>0.47095746419981693</v>
       </c>
     </row>
+    <row r="30" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="12">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>9.5310179804324935E-2</v>
+      </c>
+      <c r="K30" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L30" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M30" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N30" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O30" s="20">
+        <v>2</v>
+      </c>
+      <c r="P30" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q30">
+        <v>1.05</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
     <row r="31" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="12">
-        <v>1.1000000000000001</v>
+        <v>45</v>
+      </c>
+      <c r="B31" s="31">
+        <f>B30/0.994</f>
+        <v>1.1066398390342054</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>13</v>
@@ -1540,14 +1566,14 @@
         <v>12</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="I31" s="12">
         <v>2</v>
       </c>
       <c r="J31">
         <f t="shared" si="2"/>
-        <v>9.5310179804324935E-2</v>
+        <v>0.10132825212988801</v>
       </c>
       <c r="K31" s="20">
         <v>1.5</v>
@@ -1577,14 +1603,13 @@
     </row>
     <row r="32" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="31">
-        <f>B31/0.994</f>
-        <v>1.1066398390342054</v>
+        <v>69</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0.3</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>13</v>
@@ -1593,14 +1618,14 @@
         <v>12</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="I32" s="12">
         <v>2</v>
       </c>
       <c r="J32">
         <f t="shared" si="2"/>
-        <v>0.10132825212988801</v>
+        <v>-1.2039728043259361</v>
       </c>
       <c r="K32" s="20">
         <v>1.5</v>
@@ -1630,13 +1655,14 @@
     </row>
     <row r="33" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="12">
+        <f>B32</f>
         <v>0.3</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>13</v>
@@ -1645,6 +1671,9 @@
         <v>12</v>
       </c>
       <c r="G33" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>73</v>
       </c>
       <c r="I33" s="12">
@@ -1685,11 +1714,10 @@
         <v>74</v>
       </c>
       <c r="B34" s="12">
-        <f>B33</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>13</v>
@@ -1700,15 +1728,12 @@
       <c r="G34" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="I34" s="12">
         <v>2</v>
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
-        <v>-1.2039728043259361</v>
+        <v>-2.3025850929940455</v>
       </c>
       <c r="K34" s="20">
         <v>1.5</v>
@@ -1738,13 +1763,14 @@
     </row>
     <row r="35" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="12">
+        <f>B34</f>
         <v>0.1</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>13</v>
@@ -1753,6 +1779,9 @@
         <v>12</v>
       </c>
       <c r="G35" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>78</v>
       </c>
       <c r="I35" s="12">
@@ -1790,14 +1819,13 @@
     </row>
     <row r="36" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B36" s="12">
-        <f>B35</f>
         <v>0.1</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>13</v>
@@ -1806,10 +1834,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I36" s="12">
         <v>2</v>
@@ -1846,13 +1871,13 @@
     </row>
     <row r="37" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B37" s="12">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>13</v>
@@ -1861,14 +1886,14 @@
         <v>12</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="I37" s="12">
         <v>2</v>
       </c>
       <c r="J37">
         <f t="shared" si="2"/>
-        <v>-2.3025850929940455</v>
+        <v>-2.6592600369327779</v>
       </c>
       <c r="K37" s="20">
         <v>1.5</v>
@@ -1898,13 +1923,13 @@
     </row>
     <row r="38" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B38" s="12">
-        <v>7.0000000000000007E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>13</v>
@@ -1913,14 +1938,14 @@
         <v>12</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="I38" s="12">
         <v>2</v>
       </c>
       <c r="J38">
         <f t="shared" si="2"/>
-        <v>-2.6592600369327779</v>
+        <v>-7.1308988302963465</v>
       </c>
       <c r="K38" s="20">
         <v>1.5</v>
@@ -1950,13 +1975,13 @@
     </row>
     <row r="39" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B39" s="12">
-        <v>8.0000000000000004E-4</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>13</v>
@@ -1965,14 +1990,14 @@
         <v>12</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="I39" s="12">
         <v>2</v>
       </c>
       <c r="J39">
         <f t="shared" si="2"/>
-        <v>-7.1308988302963465</v>
+        <v>-7.1954373514339176</v>
       </c>
       <c r="K39" s="20">
         <v>1.5</v>
@@ -2002,29 +2027,29 @@
     </row>
     <row r="40" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B40" s="12">
-        <v>7.5000000000000002E-4</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I40" s="12">
         <v>2</v>
       </c>
       <c r="J40">
         <f t="shared" si="2"/>
-        <v>-7.1954373514339176</v>
+        <v>2.8273136219290276</v>
       </c>
       <c r="K40" s="20">
         <v>1.5</v>
@@ -2053,58 +2078,20 @@
       </c>
     </row>
     <row r="41" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="12">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="12">
-        <v>2</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="2"/>
-        <v>2.8273136219290276</v>
-      </c>
-      <c r="K41" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L41" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M41" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N41" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O41" s="20">
-        <v>2</v>
-      </c>
-      <c r="P41" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q41">
-        <v>1.05</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="3"/>
-        <v>0.47095746419981693</v>
-      </c>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
     </row>
     <row r="42" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
@@ -2113,11 +2100,11 @@
       <c r="P42" s="13"/>
     </row>
     <row r="43" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>65</v>
+      <c r="A43" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
@@ -2128,10 +2115,10 @@
     </row>
     <row r="44" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="B44" s="12">
+        <v>1</v>
       </c>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
@@ -2142,10 +2129,10 @@
     </row>
     <row r="45" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="12">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
@@ -2156,10 +2143,10 @@
     </row>
     <row r="46" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
@@ -2170,10 +2157,10 @@
     </row>
     <row r="47" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
@@ -2184,10 +2171,10 @@
     </row>
     <row r="48" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
@@ -2198,10 +2185,10 @@
     </row>
     <row r="49" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
@@ -2211,11 +2198,8 @@
       <c r="P49" s="13"/>
     </row>
     <row r="50" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>62</v>
+      <c r="A50" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
@@ -2226,181 +2210,217 @@
     </row>
     <row r="51" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M51" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O51" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P51" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S51" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T51" s="8"/>
     </row>
     <row r="52" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K52" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L52" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M52" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N52" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O52" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="P52" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q52" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R52" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S52" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="T52" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="A52" s="12" t="str">
+        <f>B42</f>
+        <v>fuel cell Balance of Plant production, 1 kWe, proton exchange membrane (PEM)</v>
+      </c>
+      <c r="B52" s="12">
+        <v>1</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="12" t="str">
+        <f>B47</f>
+        <v>unit</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="12" t="str">
+        <f>B45</f>
+        <v>fuel cell Balance of Plant, 1 kWe, proton exchange membrane (PEM)</v>
+      </c>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="13"/>
     </row>
     <row r="53" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="12" t="str">
-        <f>B43</f>
-        <v>fuel cell Balance of Plant production, 1 kWe, proton exchange membrane (PEM)</v>
+      <c r="A53" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="B53" s="12">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="12" t="str">
-        <f>B48</f>
-        <v>unit</v>
+        <v>16</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="12" t="str">
-        <f>B46</f>
-        <v>fuel cell Balance of Plant, 1 kWe, proton exchange membrane (PEM)</v>
-      </c>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13"/>
-      <c r="T53" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B54" s="12">
-        <v>3.7</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I54" s="12">
-        <v>2</v>
-      </c>
-      <c r="J54">
-        <f t="shared" ref="J54:J63" si="4">LN(B54)</f>
+      <c r="G53" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I53" s="12">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ref="J53:J62" si="4">LN(B53)</f>
         <v>1.3083328196501789</v>
       </c>
-      <c r="K54" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L54" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M54" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N54" s="20">
+      <c r="K53" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L53" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M53" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N53" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O54" s="20">
-        <v>2</v>
-      </c>
-      <c r="P54" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q54">
+      <c r="O53" s="20">
+        <v>2</v>
+      </c>
+      <c r="P53" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q53">
         <v>1.05</v>
       </c>
-      <c r="R54">
-        <f t="shared" ref="R54:R63" si="5">LN(SQRT(EXP(
+      <c r="R53">
+        <f t="shared" ref="R53:R62" si="5">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K54),2)
-+POWER(LN(L54),2)
-+POWER(LN(M54),2)
-+POWER(LN(N54),2)
-+POWER(LN(O54),2)
-+POWER(LN(P54),2)
-+POWER(LN(Q54),2)
++POWER(LN(K53),2)
++POWER(LN(L53),2)
++POWER(LN(M53),2)
++POWER(LN(N53),2)
++POWER(LN(O53),2)
++POWER(LN(P53),2)
++POWER(LN(Q53),2)
 )
 )))</f>
         <v>0.47095746419981693</v>
       </c>
     </row>
+    <row r="54" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="12">
+        <f>B53</f>
+        <v>3.7</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I54" s="12">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>1.3083328196501789</v>
+      </c>
+      <c r="K54" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L54" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M54" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N54" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O54" s="20">
+        <v>2</v>
+      </c>
+      <c r="P54" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q54">
+        <v>1.05</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="5"/>
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
     <row r="55" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B55" s="12">
-        <f>B54</f>
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>13</v>
@@ -2409,14 +2429,14 @@
         <v>12</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I55" s="12">
         <v>2</v>
       </c>
       <c r="J55">
         <f t="shared" si="4"/>
-        <v>1.3083328196501789</v>
+        <v>0.40546510810816438</v>
       </c>
       <c r="K55" s="20">
         <v>1.5</v>
@@ -2446,13 +2466,13 @@
     </row>
     <row r="56" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B56" s="12">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>13</v>
@@ -2461,14 +2481,14 @@
         <v>12</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I56" s="12">
         <v>2</v>
       </c>
       <c r="J56">
         <f t="shared" si="4"/>
-        <v>0.40546510810816438</v>
+        <v>9.5310179804324935E-2</v>
       </c>
       <c r="K56" s="20">
         <v>1.5</v>
@@ -2498,13 +2518,14 @@
     </row>
     <row r="57" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B57" s="12">
+        <f>B56</f>
         <v>1.1000000000000001</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>13</v>
@@ -2513,7 +2534,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I57" s="12">
         <v>2</v>
@@ -2550,14 +2571,13 @@
     </row>
     <row r="58" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B58" s="12">
-        <f>B57</f>
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>13</v>
@@ -2566,14 +2586,14 @@
         <v>12</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="I58" s="12">
         <v>2</v>
       </c>
       <c r="J58">
         <f t="shared" si="4"/>
-        <v>9.5310179804324935E-2</v>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="K58" s="20">
         <v>1.5</v>
@@ -2603,13 +2623,13 @@
     </row>
     <row r="59" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B59" s="12">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>13</v>
@@ -2618,14 +2638,14 @@
         <v>12</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="I59" s="12">
         <v>2</v>
       </c>
       <c r="J59">
         <f t="shared" si="4"/>
-        <v>-0.22314355131420971</v>
+        <v>-0.2876820724517809</v>
       </c>
       <c r="K59" s="20">
         <v>1.5</v>
@@ -2655,13 +2675,14 @@
     </row>
     <row r="60" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="12">
+        <f>B59</f>
         <v>0.75</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>13</v>
@@ -2670,7 +2691,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I60" s="12">
         <v>2</v>
@@ -2707,14 +2728,13 @@
     </row>
     <row r="61" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="12">
-        <f>B60</f>
-        <v>0.75</v>
+        <v>19</v>
+      </c>
+      <c r="B61" s="13">
+        <v>0.25</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>13</v>
@@ -2723,14 +2743,15 @@
         <v>12</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>75</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H61" s="11"/>
       <c r="I61" s="12">
         <v>2</v>
       </c>
       <c r="J61">
         <f t="shared" si="4"/>
-        <v>-0.2876820724517809</v>
+        <v>-1.3862943611198906</v>
       </c>
       <c r="K61" s="20">
         <v>1.5</v>
@@ -2760,30 +2781,29 @@
     </row>
     <row r="62" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B62" s="13">
-        <v>0.25</v>
+        <v>22</v>
+      </c>
+      <c r="B62" s="12">
+        <v>16.899999999999999</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H62" s="11"/>
+        <v>25</v>
+      </c>
       <c r="I62" s="12">
         <v>2</v>
       </c>
       <c r="J62">
         <f t="shared" si="4"/>
-        <v>-1.3862943611198906</v>
+        <v>2.8273136219290276</v>
       </c>
       <c r="K62" s="20">
         <v>1.5</v>
@@ -2812,72 +2832,33 @@
       </c>
     </row>
     <row r="63" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="12">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I63" s="12">
-        <v>2</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="4"/>
-        <v>2.8273136219290276</v>
-      </c>
-      <c r="K63" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L63" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M63" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N63" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O63" s="20">
-        <v>2</v>
-      </c>
-      <c r="P63" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q63">
-        <v>1.05</v>
-      </c>
-      <c r="R63">
-        <f t="shared" si="5"/>
-        <v>0.47095746419981693</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-    </row>
-    <row r="65" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+    </row>
+    <row r="64" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="B64" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65"/>
       <c r="I65"/>
       <c r="K65" s="20"/>
       <c r="L65" s="20"/>
@@ -2888,9 +2869,11 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66"/>
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
       <c r="I66"/>
       <c r="K66" s="20"/>
       <c r="L66" s="20"/>
@@ -2901,10 +2884,10 @@
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
       </c>
       <c r="I67"/>
       <c r="K67" s="20"/>
@@ -2914,12 +2897,12 @@
       <c r="O67" s="20"/>
       <c r="P67" s="20"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>60</v>
-      </c>
-      <c r="B68" t="s">
-        <v>86</v>
+        <v>4</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="I68"/>
       <c r="K68" s="20"/>
@@ -2929,12 +2912,12 @@
       <c r="O68" s="20"/>
       <c r="P68" s="20"/>
     </row>
-    <row r="69" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>83</v>
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
       </c>
       <c r="I69"/>
       <c r="K69" s="20"/>
@@ -2946,10 +2929,10 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="I70"/>
       <c r="K70" s="20"/>
@@ -2961,10 +2944,10 @@
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="I71"/>
       <c r="K71" s="20"/>
@@ -2976,10 +2959,10 @@
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="I72"/>
       <c r="K72" s="20"/>
@@ -2989,13 +2972,11 @@
       <c r="O72" s="20"/>
       <c r="P72" s="20"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" t="s">
-        <v>24</v>
-      </c>
+    <row r="73" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73"/>
       <c r="I73"/>
       <c r="K73" s="20"/>
       <c r="L73" s="20"/>
@@ -3006,184 +2987,222 @@
     </row>
     <row r="74" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74"/>
-      <c r="I74"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="20"/>
+        <v>8</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K74" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L74" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="M74" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N74" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O74" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="P74" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q74" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R74" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S74" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T74" s="8"/>
     </row>
     <row r="75" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K75" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="L75" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M75" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="N75" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O75" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="P75" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q75" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="R75" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S75" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="T75" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="A75" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I75"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="T75" s="12"/>
     </row>
     <row r="76" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="4">
+        <v>0.93</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="I76"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
-      <c r="T76" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>88</v>
-      </c>
-      <c r="B77" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="C77" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" t="s">
         <v>12</v>
       </c>
-      <c r="G77" t="s">
-        <v>89</v>
-      </c>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-      <c r="I77" s="12">
-        <v>2</v>
-      </c>
-      <c r="J77">
-        <f t="shared" ref="J77:J92" si="6">LN(B77)</f>
+      <c r="G76" t="s">
+        <v>86</v>
+      </c>
+      <c r="H76" t="s">
+        <v>87</v>
+      </c>
+      <c r="I76" s="12">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <f t="shared" ref="J76:J91" si="6">LN(B76)</f>
         <v>-7.2570692834835374E-2</v>
       </c>
-      <c r="K77" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L77" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M77" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N77" s="20">
+      <c r="K76" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L76" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M76" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N76" s="20">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O77" s="20">
-        <v>2</v>
-      </c>
-      <c r="P77" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q77">
+      <c r="O76" s="20">
+        <v>2</v>
+      </c>
+      <c r="P76" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q76">
         <v>1.05</v>
       </c>
-      <c r="R77">
-        <f t="shared" ref="R77:R92" si="7">LN(SQRT(EXP(
+      <c r="R76">
+        <f t="shared" ref="R76:R91" si="7">LN(SQRT(EXP(
 SQRT(
-+POWER(LN(K77),2)
-+POWER(LN(L77),2)
-+POWER(LN(M77),2)
-+POWER(LN(N77),2)
-+POWER(LN(O77),2)
-+POWER(LN(P77),2)
-+POWER(LN(Q77),2)
++POWER(LN(K76),2)
++POWER(LN(L76),2)
++POWER(LN(M76),2)
++POWER(LN(N76),2)
++POWER(LN(O76),2)
++POWER(LN(P76),2)
++POWER(LN(Q76),2)
 )
 )))</f>
         <v>0.47095746419981693</v>
       </c>
     </row>
+    <row r="77" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>52</v>
+      </c>
+      <c r="B77" s="4">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" t="s">
+        <v>88</v>
+      </c>
+      <c r="I77" s="12">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="6"/>
+        <v>-3.473768074496991</v>
+      </c>
+      <c r="K77" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="L77" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="M77" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="N77" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O77" s="20">
+        <v>2</v>
+      </c>
+      <c r="P77" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="Q77">
+        <v>1.05</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="7"/>
+        <v>0.47095746419981693</v>
+      </c>
+    </row>
     <row r="78" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>55</v>
+      <c r="A78" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="B78" s="4">
         <v>3.1E-2</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -3192,10 +3211,10 @@
         <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I78" s="12">
         <v>2</v>
@@ -3232,13 +3251,13 @@
     </row>
     <row r="79" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B79" s="4">
         <v>3.1E-2</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -3247,10 +3266,10 @@
         <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H79" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I79" s="12">
         <v>2</v>
@@ -3286,14 +3305,14 @@
       </c>
     </row>
     <row r="80" spans="1:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="33" t="s">
-        <v>94</v>
+      <c r="A80" t="s">
+        <v>93</v>
       </c>
       <c r="B80" s="4">
         <v>3.1E-2</v>
       </c>
       <c r="C80" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -3302,10 +3321,10 @@
         <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H80" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I80" s="12">
         <v>2</v>
@@ -3342,13 +3361,13 @@
     </row>
     <row r="81" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="4">
-        <v>3.1E-2</v>
+        <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -3357,17 +3376,14 @@
         <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>97</v>
-      </c>
-      <c r="H81" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="I81" s="12">
         <v>2</v>
       </c>
       <c r="J81">
         <f t="shared" si="6"/>
-        <v>-3.473768074496991</v>
+        <v>0</v>
       </c>
       <c r="K81" s="20">
         <v>1.5</v>
@@ -3396,14 +3412,14 @@
       </c>
     </row>
     <row r="82" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>98</v>
+      <c r="A82" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="B82" s="4">
-        <v>1</v>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
@@ -3412,6 +3428,9 @@
         <v>12</v>
       </c>
       <c r="G82" t="s">
+        <v>97</v>
+      </c>
+      <c r="H82" t="s">
         <v>98</v>
       </c>
       <c r="I82" s="12">
@@ -3419,7 +3438,7 @@
       </c>
       <c r="J82">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-4.6777408788229264</v>
       </c>
       <c r="K82" s="20">
         <v>1.5</v>
@@ -3452,10 +3471,10 @@
         <v>99</v>
       </c>
       <c r="B83" s="4">
-        <v>9.2999999999999992E-3</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -3467,14 +3486,14 @@
         <v>100</v>
       </c>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I83" s="12">
         <v>2</v>
       </c>
       <c r="J83">
         <f t="shared" si="6"/>
-        <v>-4.6777408788229264</v>
+        <v>-3.1941832122778293</v>
       </c>
       <c r="K83" s="20">
         <v>1.5</v>
@@ -3504,13 +3523,13 @@
     </row>
     <row r="84" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B84" s="4">
-        <v>4.1000000000000002E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -3519,17 +3538,17 @@
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H84" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I84" s="12">
         <v>2</v>
       </c>
       <c r="J84">
         <f t="shared" si="6"/>
-        <v>-3.1941832122778293</v>
+        <v>-4.3428059215206005</v>
       </c>
       <c r="K84" s="20">
         <v>1.5</v>
@@ -3558,33 +3577,33 @@
       </c>
     </row>
     <row r="85" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="33" t="s">
-        <v>104</v>
+      <c r="A85" t="s">
+        <v>40</v>
       </c>
       <c r="B85" s="4">
-        <v>1.2999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H85" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I85" s="12">
         <v>2</v>
       </c>
       <c r="J85">
         <f t="shared" si="6"/>
-        <v>-4.3428059215206005</v>
+        <v>-3.5065578973199818</v>
       </c>
       <c r="K85" s="20">
         <v>1.5</v>
@@ -3613,33 +3632,33 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>42</v>
+      <c r="A86" s="33" t="s">
+        <v>22</v>
       </c>
       <c r="B86" s="4">
-        <v>0.03</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C86" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" t="s">
         <v>24</v>
-      </c>
-      <c r="D86" t="s">
-        <v>43</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I86" s="12">
         <v>2</v>
       </c>
       <c r="J86">
         <f t="shared" si="6"/>
-        <v>-3.5065578973199818</v>
+        <v>9.5310179804324935E-2</v>
       </c>
       <c r="K86" s="20">
         <v>1.5</v>
@@ -3668,33 +3687,30 @@
       </c>
     </row>
     <row r="87" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="33" t="s">
+      <c r="A87" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="4">
+        <v>4.0000000000000001E-10</v>
+      </c>
+      <c r="C87" t="s">
         <v>23</v>
       </c>
-      <c r="B87" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C87" t="s">
-        <v>107</v>
-      </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F87" t="s">
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>26</v>
-      </c>
-      <c r="H87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I87" s="12">
         <v>2</v>
       </c>
       <c r="J87">
         <f t="shared" si="6"/>
-        <v>9.5310179804324935E-2</v>
+        <v>-21.639556568820566</v>
       </c>
       <c r="K87" s="20">
         <v>1.5</v>
@@ -3715,25 +3731,25 @@
         <v>1.2</v>
       </c>
       <c r="Q87">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="R87">
         <f t="shared" si="7"/>
-        <v>0.47095746419981693</v>
+        <v>0.72314801614797197</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="C88" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" t="s">
         <v>109</v>
-      </c>
-      <c r="B88" s="4">
-        <v>4.0000000000000001E-10</v>
-      </c>
-      <c r="C88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88" t="s">
-        <v>6</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
@@ -3741,12 +3757,15 @@
       <c r="G88" t="s">
         <v>110</v>
       </c>
+      <c r="H88" t="s">
+        <v>111</v>
+      </c>
       <c r="I88" s="12">
         <v>2</v>
       </c>
       <c r="J88">
         <f t="shared" si="6"/>
-        <v>-21.639556568820566</v>
+        <v>-0.18632957819149348</v>
       </c>
       <c r="K88" s="20">
         <v>1.5</v>
@@ -3767,25 +3786,25 @@
         <v>1.2</v>
       </c>
       <c r="Q88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R88">
         <f t="shared" si="7"/>
-        <v>0.72314801614797197</v>
+        <v>0.58422518478336083</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="33" t="s">
-        <v>111</v>
+      <c r="A89" t="s">
+        <v>112</v>
       </c>
       <c r="B89" s="4">
-        <v>0.83</v>
+        <v>0.21</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
@@ -3801,7 +3820,7 @@
       </c>
       <c r="J89">
         <f t="shared" si="6"/>
-        <v>-0.18632957819149348</v>
+        <v>-1.5606477482646683</v>
       </c>
       <c r="K89" s="20">
         <v>1.5</v>
@@ -3830,33 +3849,27 @@
       </c>
     </row>
     <row r="90" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="33" t="s">
         <v>115</v>
       </c>
       <c r="B90" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="C90" t="s">
-        <v>24</v>
+        <v>5.5000000000000003E-4</v>
       </c>
       <c r="D90" t="s">
-        <v>112</v>
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>27</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>116</v>
-      </c>
-      <c r="H90" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="I90" s="12">
         <v>2</v>
       </c>
       <c r="J90">
         <f t="shared" si="6"/>
-        <v>-1.5606477482646683</v>
+        <v>-7.5055922797377574</v>
       </c>
       <c r="K90" s="20">
         <v>1.5</v>
@@ -3876,36 +3889,39 @@
       <c r="P90" s="20">
         <v>1.2</v>
       </c>
-      <c r="Q90">
-        <v>2</v>
+      <c r="Q90" s="20">
+        <v>1.5</v>
       </c>
       <c r="R90">
         <f t="shared" si="7"/>
-        <v>0.58422518478336083</v>
+        <v>0.51215847306170115</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="33" t="s">
-        <v>118</v>
+      <c r="A91" t="s">
+        <v>116</v>
       </c>
       <c r="B91" s="4">
-        <v>5.5000000000000003E-4</v>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>28</v>
       </c>
       <c r="D91" t="s">
         <v>13</v>
       </c>
-      <c r="E91" t="s">
-        <v>28</v>
-      </c>
       <c r="F91" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>117</v>
       </c>
       <c r="I91" s="12">
         <v>2</v>
       </c>
       <c r="J91">
         <f t="shared" si="6"/>
-        <v>-7.5055922797377574</v>
+        <v>-3.4420193761824103</v>
       </c>
       <c r="K91" s="20">
         <v>1.5</v>
@@ -3925,73 +3941,34 @@
       <c r="P91" s="20">
         <v>1.2</v>
       </c>
-      <c r="Q91" s="20">
-        <v>1.5</v>
+      <c r="Q91">
+        <v>1.05</v>
       </c>
       <c r="R91">
         <f t="shared" si="7"/>
-        <v>0.51215847306170115</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>119</v>
-      </c>
-      <c r="B92" s="4">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C92" t="s">
-        <v>29</v>
-      </c>
-      <c r="D92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" t="s">
-        <v>120</v>
-      </c>
-      <c r="I92" s="12">
-        <v>2</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="6"/>
-        <v>-3.4420193761824103</v>
-      </c>
-      <c r="K92" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="L92" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="M92" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="N92" s="20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O92" s="20">
-        <v>2</v>
-      </c>
-      <c r="P92" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="Q92">
-        <v>1.05</v>
-      </c>
-      <c r="R92">
-        <f t="shared" si="7"/>
         <v>0.47095746419981693</v>
       </c>
     </row>
+    <row r="92" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+    </row>
     <row r="93" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="13"/>
-      <c r="P93" s="13"/>
+      <c r="B93" s="17"/>
+      <c r="H93" s="11"/>
+      <c r="J93"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="20"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="20"/>
+      <c r="Q93"/>
+      <c r="R93"/>
     </row>
     <row r="94" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B94" s="17"/>
@@ -4045,8 +4022,10 @@
       <c r="Q97"/>
       <c r="R97"/>
     </row>
-    <row r="98" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B98" s="17"/>
+    <row r="98" spans="1:20" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="29"/>
+      <c r="B98" s="30"/>
+      <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="J98"/>
       <c r="K98" s="20"/>
@@ -4058,9 +4037,9 @@
       <c r="Q98"/>
       <c r="R98"/>
     </row>
-    <row r="99" spans="1:20" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="29"/>
+    <row r="99" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B99" s="30"/>
+      <c r="D99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="J99"/>
@@ -4089,10 +4068,8 @@
       <c r="R100"/>
     </row>
     <row r="101" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B101" s="30"/>
-      <c r="D101" s="11"/>
+      <c r="B101" s="17"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
       <c r="J101"/>
       <c r="K101" s="20"/>
       <c r="L101" s="20"/>
@@ -4105,30 +4082,27 @@
     </row>
     <row r="102" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B102" s="17"/>
-      <c r="G102" s="11"/>
-      <c r="J102"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20"/>
-      <c r="N102" s="20"/>
-      <c r="O102" s="20"/>
-      <c r="P102" s="20"/>
-      <c r="Q102"/>
-      <c r="R102"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="13"/>
     </row>
     <row r="103" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B103" s="17"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="10"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="26"/>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
       <c r="O103" s="13"/>
       <c r="P103" s="13"/>
     </row>
     <row r="104" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10"/>
-      <c r="K104" s="25"/>
+      <c r="A104" s="14"/>
+      <c r="B104" s="15"/>
+      <c r="K104" s="27"/>
       <c r="L104" s="26"/>
       <c r="M104" s="13"/>
       <c r="N104" s="13"/>
@@ -4138,7 +4112,7 @@
     <row r="105" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="14"/>
       <c r="B105" s="15"/>
-      <c r="K105" s="27"/>
+      <c r="K105" s="13"/>
       <c r="L105" s="26"/>
       <c r="M105" s="13"/>
       <c r="N105" s="13"/>
@@ -4147,17 +4121,17 @@
     </row>
     <row r="106" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="14"/>
-      <c r="B106" s="15"/>
+      <c r="B106" s="17"/>
       <c r="K106" s="13"/>
-      <c r="L106" s="26"/>
+      <c r="L106" s="13"/>
       <c r="M106" s="13"/>
       <c r="N106" s="13"/>
       <c r="O106" s="13"/>
       <c r="P106" s="13"/>
     </row>
-    <row r="107" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14"/>
-      <c r="B107" s="17"/>
+      <c r="B107" s="15"/>
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
       <c r="M107" s="13"/>
@@ -4165,9 +4139,11 @@
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
     </row>
-    <row r="108" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
-      <c r="B108" s="15"/>
+      <c r="B108" s="17"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
       <c r="K108" s="13"/>
       <c r="L108" s="13"/>
       <c r="M108" s="13"/>
@@ -4176,10 +4152,15 @@
       <c r="P108" s="13"/>
     </row>
     <row r="109" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="14"/>
-      <c r="B109" s="17"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
       <c r="K109" s="13"/>
       <c r="L109" s="13"/>
       <c r="M109" s="13"/>
@@ -4192,54 +4173,49 @@
       <c r="B110" s="10"/>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
+      <c r="E110" s="24"/>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
-      <c r="P110" s="13"/>
+      <c r="H110" s="24"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="19"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="18"/>
+      <c r="T110" s="8"/>
     </row>
     <row r="111" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A111" s="18"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="24"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19"/>
-      <c r="M111" s="19"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="19"/>
-      <c r="P111" s="19"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
-      <c r="S111" s="18"/>
-      <c r="T111" s="8"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="E111" s="11"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="13"/>
+      <c r="O111" s="13"/>
+      <c r="P111" s="13"/>
     </row>
     <row r="112" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="17"/>
       <c r="B112" s="17"/>
-      <c r="E112" s="11"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
-      <c r="O112" s="13"/>
-      <c r="P112" s="13"/>
+      <c r="J112"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="20"/>
+      <c r="O112" s="20"/>
+      <c r="P112" s="20"/>
+      <c r="Q112" s="20"/>
+      <c r="R112"/>
     </row>
     <row r="113" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B113" s="17"/>
@@ -4615,18 +4591,17 @@
     </row>
     <row r="144" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B144" s="17"/>
-      <c r="J144"/>
-      <c r="K144" s="20"/>
-      <c r="L144" s="20"/>
-      <c r="M144" s="20"/>
-      <c r="N144" s="20"/>
-      <c r="O144" s="20"/>
-      <c r="P144" s="20"/>
-      <c r="Q144" s="20"/>
-      <c r="R144"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+      <c r="M144" s="13"/>
+      <c r="N144" s="13"/>
+      <c r="O144" s="13"/>
+      <c r="P144" s="13"/>
     </row>
     <row r="145" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B145" s="17"/>
+      <c r="A145" s="9"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="11"/>
       <c r="K145" s="13"/>
       <c r="L145" s="13"/>
       <c r="M145" s="13"/>
@@ -4635,9 +4610,8 @@
       <c r="P145" s="13"/>
     </row>
     <row r="146" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="9"/>
-      <c r="B146" s="10"/>
-      <c r="C146" s="11"/>
+      <c r="A146" s="14"/>
+      <c r="B146" s="15"/>
       <c r="K146" s="13"/>
       <c r="L146" s="13"/>
       <c r="M146" s="13"/>
@@ -4657,7 +4631,7 @@
     </row>
     <row r="148" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="14"/>
-      <c r="B148" s="15"/>
+      <c r="B148" s="16"/>
       <c r="K148" s="13"/>
       <c r="L148" s="13"/>
       <c r="M148" s="13"/>
@@ -4667,7 +4641,7 @@
     </row>
     <row r="149" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="14"/>
-      <c r="B149" s="16"/>
+      <c r="B149" s="15"/>
       <c r="K149" s="13"/>
       <c r="L149" s="13"/>
       <c r="M149" s="13"/>
@@ -4677,7 +4651,10 @@
     </row>
     <row r="150" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
-      <c r="B150" s="15"/>
+      <c r="B150" s="17"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
       <c r="M150" s="13"/>
@@ -4686,11 +4663,16 @@
       <c r="P150" s="13"/>
     </row>
     <row r="151" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="14"/>
-      <c r="B151" s="17"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="18"/>
+      <c r="A151" s="18"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11"/>
       <c r="K151" s="13"/>
       <c r="L151" s="13"/>
       <c r="M151" s="13"/>
@@ -4706,51 +4688,45 @@
       <c r="E152" s="18"/>
       <c r="F152" s="18"/>
       <c r="G152" s="18"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="13"/>
-      <c r="L152" s="13"/>
-      <c r="M152" s="13"/>
-      <c r="N152" s="13"/>
-      <c r="O152" s="13"/>
-      <c r="P152" s="13"/>
+      <c r="H152" s="24"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19"/>
+      <c r="N152" s="19"/>
+      <c r="O152" s="19"/>
+      <c r="P152" s="19"/>
+      <c r="Q152" s="8"/>
+      <c r="R152" s="8"/>
+      <c r="S152" s="18"/>
+      <c r="T152" s="8"/>
     </row>
     <row r="153" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="18"/>
-      <c r="B153" s="10"/>
-      <c r="C153" s="18"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18"/>
-      <c r="G153" s="18"/>
-      <c r="H153" s="24"/>
-      <c r="I153" s="18"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19"/>
-      <c r="N153" s="19"/>
-      <c r="O153" s="19"/>
-      <c r="P153" s="19"/>
-      <c r="Q153" s="8"/>
-      <c r="R153" s="8"/>
-      <c r="S153" s="18"/>
-      <c r="T153" s="8"/>
+      <c r="A153" s="17"/>
+      <c r="B153" s="17"/>
+      <c r="E153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="13"/>
+      <c r="M153" s="13"/>
+      <c r="N153" s="13"/>
+      <c r="O153" s="13"/>
+      <c r="P153" s="13"/>
+      <c r="T153"/>
     </row>
     <row r="154" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="17"/>
-      <c r="B154" s="17"/>
-      <c r="E154" s="11"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="11"/>
-      <c r="K154" s="13"/>
-      <c r="L154" s="13"/>
-      <c r="M154" s="13"/>
-      <c r="N154" s="13"/>
-      <c r="O154" s="13"/>
-      <c r="P154" s="13"/>
-      <c r="T154"/>
+      <c r="J154"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="20"/>
+      <c r="O154" s="20"/>
+      <c r="P154" s="20"/>
+      <c r="Q154"/>
+      <c r="R154"/>
     </row>
     <row r="155" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
@@ -4765,7 +4741,10 @@
       <c r="R155"/>
     </row>
     <row r="156" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="17"/>
+      <c r="A156" s="14"/>
+      <c r="B156" s="17"/>
+      <c r="E156" s="11"/>
+      <c r="H156" s="11"/>
       <c r="J156"/>
       <c r="K156" s="20"/>
       <c r="L156" s="20"/>
@@ -4780,6 +4759,7 @@
       <c r="A157" s="14"/>
       <c r="B157" s="17"/>
       <c r="E157" s="11"/>
+      <c r="G157" s="14"/>
       <c r="H157" s="11"/>
       <c r="J157"/>
       <c r="K157" s="20"/>
@@ -4794,9 +4774,7 @@
     <row r="158" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="14"/>
       <c r="B158" s="17"/>
-      <c r="E158" s="11"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="11"/>
+      <c r="H158" s="21"/>
       <c r="J158"/>
       <c r="K158" s="20"/>
       <c r="L158" s="20"/>
@@ -4808,9 +4786,14 @@
       <c r="R158"/>
     </row>
     <row r="159" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="14"/>
-      <c r="B159" s="17"/>
-      <c r="H159" s="21"/>
+      <c r="A159" s="22"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="23"/>
       <c r="J159"/>
       <c r="K159" s="20"/>
       <c r="L159" s="20"/>
@@ -4818,30 +4801,21 @@
       <c r="N159" s="20"/>
       <c r="O159" s="20"/>
       <c r="P159" s="20"/>
-      <c r="Q159"/>
+      <c r="Q159" s="20"/>
       <c r="R159"/>
     </row>
     <row r="160" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="22"/>
-      <c r="B160" s="16"/>
-      <c r="C160" s="22"/>
-      <c r="D160" s="22"/>
-      <c r="E160" s="22"/>
-      <c r="F160" s="22"/>
-      <c r="G160" s="22"/>
-      <c r="H160" s="23"/>
-      <c r="J160"/>
-      <c r="K160" s="20"/>
-      <c r="L160" s="20"/>
-      <c r="M160" s="20"/>
-      <c r="N160" s="20"/>
-      <c r="O160" s="20"/>
-      <c r="P160" s="20"/>
-      <c r="Q160" s="20"/>
-      <c r="R160"/>
+      <c r="B160" s="17"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="13"/>
+      <c r="M160" s="13"/>
+      <c r="N160" s="13"/>
+      <c r="O160" s="13"/>
+      <c r="P160" s="13"/>
     </row>
     <row r="161" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B161" s="17"/>
+      <c r="A161" s="9"/>
+      <c r="B161" s="10"/>
       <c r="K161" s="13"/>
       <c r="L161" s="13"/>
       <c r="M161" s="13"/>
@@ -4850,8 +4824,8 @@
       <c r="P161" s="13"/>
     </row>
     <row r="162" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="9"/>
-      <c r="B162" s="10"/>
+      <c r="A162" s="14"/>
+      <c r="B162" s="15"/>
       <c r="K162" s="13"/>
       <c r="L162" s="13"/>
       <c r="M162" s="13"/>
@@ -4871,7 +4845,7 @@
     </row>
     <row r="164" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="14"/>
-      <c r="B164" s="15"/>
+      <c r="B164" s="17"/>
       <c r="K164" s="13"/>
       <c r="L164" s="13"/>
       <c r="M164" s="13"/>
@@ -4881,7 +4855,7 @@
     </row>
     <row r="165" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="14"/>
-      <c r="B165" s="17"/>
+      <c r="B165" s="15"/>
       <c r="K165" s="13"/>
       <c r="L165" s="13"/>
       <c r="M165" s="13"/>
@@ -4891,7 +4865,7 @@
     </row>
     <row r="166" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="14"/>
-      <c r="B166" s="15"/>
+      <c r="B166" s="17"/>
       <c r="K166" s="13"/>
       <c r="L166" s="13"/>
       <c r="M166" s="13"/>
@@ -4900,8 +4874,16 @@
       <c r="P166" s="13"/>
     </row>
     <row r="167" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A167" s="14"/>
-      <c r="B167" s="17"/>
+      <c r="A167" s="18"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="18"/>
+      <c r="E167" s="18"/>
+      <c r="F167" s="18"/>
+      <c r="G167" s="18"/>
+      <c r="H167" s="18"/>
+      <c r="I167" s="18"/>
+      <c r="J167" s="18"/>
       <c r="K167" s="13"/>
       <c r="L167" s="13"/>
       <c r="M167" s="13"/>
@@ -4914,50 +4896,44 @@
       <c r="B168" s="10"/>
       <c r="C168" s="18"/>
       <c r="D168" s="18"/>
-      <c r="E168" s="18"/>
+      <c r="E168" s="24"/>
       <c r="F168" s="18"/>
       <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
+      <c r="H168" s="24"/>
       <c r="I168" s="18"/>
-      <c r="J168" s="18"/>
-      <c r="K168" s="13"/>
-      <c r="L168" s="13"/>
-      <c r="M168" s="13"/>
-      <c r="N168" s="13"/>
-      <c r="O168" s="13"/>
-      <c r="P168" s="13"/>
+      <c r="J168" s="8"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="19"/>
+      <c r="N168" s="19"/>
+      <c r="O168" s="19"/>
+      <c r="P168" s="19"/>
+      <c r="Q168" s="8"/>
+      <c r="R168" s="8"/>
+      <c r="S168" s="18"/>
+      <c r="T168" s="8"/>
     </row>
     <row r="169" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A169" s="18"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="18"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
-      <c r="H169" s="24"/>
-      <c r="I169" s="18"/>
-      <c r="J169" s="8"/>
-      <c r="K169" s="19"/>
-      <c r="L169" s="19"/>
-      <c r="M169" s="19"/>
-      <c r="N169" s="19"/>
-      <c r="O169" s="19"/>
-      <c r="P169" s="19"/>
-      <c r="Q169" s="8"/>
-      <c r="R169" s="8"/>
-      <c r="S169" s="18"/>
-      <c r="T169" s="8"/>
+      <c r="A169" s="17"/>
+      <c r="B169" s="17"/>
+      <c r="K169" s="13"/>
+      <c r="L169" s="13"/>
+      <c r="M169" s="13"/>
+      <c r="N169" s="13"/>
+      <c r="O169" s="13"/>
+      <c r="P169" s="13"/>
     </row>
     <row r="170" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A170" s="17"/>
-      <c r="B170" s="17"/>
-      <c r="K170" s="13"/>
-      <c r="L170" s="13"/>
-      <c r="M170" s="13"/>
-      <c r="N170" s="13"/>
-      <c r="O170" s="13"/>
-      <c r="P170" s="13"/>
+      <c r="B170" s="13"/>
+      <c r="J170"/>
+      <c r="K170" s="20"/>
+      <c r="L170" s="20"/>
+      <c r="M170" s="20"/>
+      <c r="N170" s="20"/>
+      <c r="O170" s="20"/>
+      <c r="P170" s="20"/>
+      <c r="Q170"/>
+      <c r="R170"/>
     </row>
     <row r="171" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B171" s="13"/>
@@ -4997,6 +4973,8 @@
     </row>
     <row r="174" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B174" s="13"/>
+      <c r="E174" s="11"/>
+      <c r="G174" s="11"/>
       <c r="J174"/>
       <c r="K174" s="20"/>
       <c r="L174" s="20"/>
@@ -5036,34 +5014,30 @@
       <c r="R176"/>
     </row>
     <row r="177" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B177" s="13"/>
-      <c r="E177" s="11"/>
+      <c r="B177" s="17"/>
+      <c r="F177" s="11"/>
       <c r="G177" s="11"/>
-      <c r="J177"/>
-      <c r="K177" s="20"/>
-      <c r="L177" s="20"/>
-      <c r="M177" s="20"/>
-      <c r="N177" s="20"/>
-      <c r="O177" s="20"/>
-      <c r="P177" s="20"/>
-      <c r="Q177"/>
-      <c r="R177"/>
+      <c r="K177" s="13"/>
+      <c r="L177" s="13"/>
+      <c r="M177" s="13"/>
+      <c r="N177" s="13"/>
+      <c r="O177" s="13"/>
+      <c r="P177" s="13"/>
     </row>
     <row r="178" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B178" s="17"/>
-      <c r="F178" s="11"/>
-      <c r="G178" s="11"/>
-      <c r="K178" s="13"/>
-      <c r="L178" s="13"/>
+      <c r="A178" s="9"/>
+      <c r="B178" s="10"/>
+      <c r="K178" s="25"/>
+      <c r="L178" s="26"/>
       <c r="M178" s="13"/>
       <c r="N178" s="13"/>
       <c r="O178" s="13"/>
       <c r="P178" s="13"/>
     </row>
     <row r="179" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="9"/>
-      <c r="B179" s="10"/>
-      <c r="K179" s="25"/>
+      <c r="A179" s="14"/>
+      <c r="B179" s="15"/>
+      <c r="K179" s="27"/>
       <c r="L179" s="26"/>
       <c r="M179" s="13"/>
       <c r="N179" s="13"/>
@@ -5073,7 +5047,7 @@
     <row r="180" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="14"/>
       <c r="B180" s="15"/>
-      <c r="K180" s="27"/>
+      <c r="K180" s="13"/>
       <c r="L180" s="26"/>
       <c r="M180" s="13"/>
       <c r="N180" s="13"/>
@@ -5082,17 +5056,17 @@
     </row>
     <row r="181" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="14"/>
-      <c r="B181" s="15"/>
+      <c r="B181" s="17"/>
       <c r="K181" s="13"/>
-      <c r="L181" s="26"/>
+      <c r="L181" s="13"/>
       <c r="M181" s="13"/>
       <c r="N181" s="13"/>
       <c r="O181" s="13"/>
       <c r="P181" s="13"/>
     </row>
-    <row r="182" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="14"/>
-      <c r="B182" s="17"/>
+      <c r="B182" s="15"/>
       <c r="K182" s="13"/>
       <c r="L182" s="13"/>
       <c r="M182" s="13"/>
@@ -5100,9 +5074,11 @@
       <c r="O182" s="13"/>
       <c r="P182" s="13"/>
     </row>
-    <row r="183" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="14"/>
-      <c r="B183" s="15"/>
+      <c r="B183" s="17"/>
+      <c r="H183" s="18"/>
+      <c r="I183" s="18"/>
       <c r="K183" s="13"/>
       <c r="L183" s="13"/>
       <c r="M183" s="13"/>
@@ -5111,10 +5087,15 @@
       <c r="P183" s="13"/>
     </row>
     <row r="184" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A184" s="14"/>
-      <c r="B184" s="17"/>
-      <c r="H184" s="18"/>
-      <c r="I184" s="18"/>
+      <c r="A184" s="18"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="18"/>
+      <c r="E184" s="18"/>
+      <c r="F184" s="18"/>
+      <c r="G184" s="18"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11"/>
       <c r="K184" s="13"/>
       <c r="L184" s="13"/>
       <c r="M184" s="13"/>
@@ -5127,53 +5108,49 @@
       <c r="B185" s="10"/>
       <c r="C185" s="18"/>
       <c r="D185" s="18"/>
-      <c r="E185" s="18"/>
+      <c r="E185" s="24"/>
       <c r="F185" s="18"/>
       <c r="G185" s="18"/>
-      <c r="H185" s="11"/>
-      <c r="I185" s="11"/>
-      <c r="K185" s="13"/>
-      <c r="L185" s="13"/>
-      <c r="M185" s="13"/>
-      <c r="N185" s="13"/>
-      <c r="O185" s="13"/>
-      <c r="P185" s="13"/>
+      <c r="H185" s="24"/>
+      <c r="I185" s="18"/>
+      <c r="J185" s="8"/>
+      <c r="K185" s="19"/>
+      <c r="L185" s="19"/>
+      <c r="M185" s="19"/>
+      <c r="N185" s="19"/>
+      <c r="O185" s="19"/>
+      <c r="P185" s="19"/>
+      <c r="Q185" s="8"/>
+      <c r="R185" s="8"/>
+      <c r="S185" s="18"/>
+      <c r="T185" s="8"/>
     </row>
     <row r="186" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="18"/>
-      <c r="B186" s="10"/>
-      <c r="C186" s="18"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="24"/>
-      <c r="F186" s="18"/>
-      <c r="G186" s="18"/>
-      <c r="H186" s="24"/>
-      <c r="I186" s="18"/>
-      <c r="J186" s="8"/>
-      <c r="K186" s="19"/>
-      <c r="L186" s="19"/>
-      <c r="M186" s="19"/>
-      <c r="N186" s="19"/>
-      <c r="O186" s="19"/>
-      <c r="P186" s="19"/>
-      <c r="Q186" s="8"/>
-      <c r="R186" s="8"/>
-      <c r="S186" s="18"/>
-      <c r="T186" s="8"/>
+      <c r="A186" s="17"/>
+      <c r="B186" s="17"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="13"/>
+      <c r="L186" s="13"/>
+      <c r="M186" s="13"/>
+      <c r="N186" s="13"/>
+      <c r="O186" s="13"/>
+      <c r="P186" s="13"/>
     </row>
     <row r="187" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A187" s="17"/>
       <c r="B187" s="17"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="11"/>
-      <c r="I187" s="11"/>
-      <c r="J187" s="11"/>
-      <c r="K187" s="13"/>
-      <c r="L187" s="13"/>
-      <c r="M187" s="13"/>
-      <c r="N187" s="13"/>
-      <c r="O187" s="13"/>
-      <c r="P187" s="13"/>
+      <c r="H187" s="28"/>
+      <c r="J187"/>
+      <c r="K187" s="20"/>
+      <c r="L187" s="20"/>
+      <c r="M187" s="20"/>
+      <c r="N187" s="20"/>
+      <c r="O187" s="20"/>
+      <c r="P187" s="20"/>
+      <c r="Q187"/>
+      <c r="R187"/>
     </row>
     <row r="188" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B188" s="17"/>
@@ -5255,7 +5232,7 @@
     </row>
     <row r="194" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B194" s="17"/>
-      <c r="H194" s="28"/>
+      <c r="H194" s="11"/>
       <c r="J194"/>
       <c r="K194" s="20"/>
       <c r="L194" s="20"/>
@@ -5890,8 +5867,10 @@
       <c r="Q242"/>
       <c r="R242"/>
     </row>
-    <row r="243" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="29"/>
       <c r="B243" s="17"/>
+      <c r="G243" s="11"/>
       <c r="H243" s="11"/>
       <c r="J243"/>
       <c r="K243" s="20"/>
@@ -5903,9 +5882,9 @@
       <c r="Q243"/>
       <c r="R243"/>
     </row>
-    <row r="244" spans="1:20" s="12" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="29"/>
-      <c r="B244" s="17"/>
+    <row r="244" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B244" s="30"/>
+      <c r="D244" s="11"/>
       <c r="G244" s="11"/>
       <c r="H244" s="11"/>
       <c r="J244"/>
@@ -5919,10 +5898,8 @@
       <c r="R244"/>
     </row>
     <row r="245" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B245" s="30"/>
-      <c r="D245" s="11"/>
+      <c r="B245" s="17"/>
       <c r="G245" s="11"/>
-      <c r="H245" s="11"/>
       <c r="J245"/>
       <c r="K245" s="20"/>
       <c r="L245" s="20"/>
@@ -5935,24 +5912,22 @@
     </row>
     <row r="246" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B246" s="17"/>
+      <c r="C246" s="11"/>
+      <c r="F246" s="11"/>
       <c r="G246" s="11"/>
-      <c r="J246"/>
-      <c r="K246" s="20"/>
-      <c r="L246" s="20"/>
-      <c r="M246" s="20"/>
-      <c r="N246" s="20"/>
-      <c r="O246" s="20"/>
-      <c r="P246" s="20"/>
-      <c r="Q246"/>
-      <c r="R246"/>
+      <c r="H246" s="11"/>
+      <c r="I246" s="11"/>
+      <c r="K246" s="13"/>
+      <c r="L246" s="13"/>
+      <c r="M246" s="13"/>
+      <c r="N246" s="13"/>
+      <c r="O246" s="13"/>
+      <c r="P246" s="13"/>
     </row>
     <row r="247" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B247" s="17"/>
+      <c r="A247" s="9"/>
+      <c r="B247" s="10"/>
       <c r="C247" s="11"/>
-      <c r="F247" s="11"/>
-      <c r="G247" s="11"/>
-      <c r="H247" s="11"/>
-      <c r="I247" s="11"/>
       <c r="K247" s="13"/>
       <c r="L247" s="13"/>
       <c r="M247" s="13"/>
@@ -5961,9 +5936,8 @@
       <c r="P247" s="13"/>
     </row>
     <row r="248" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A248" s="9"/>
-      <c r="B248" s="10"/>
-      <c r="C248" s="11"/>
+      <c r="A248" s="14"/>
+      <c r="B248" s="15"/>
       <c r="K248" s="13"/>
       <c r="L248" s="13"/>
       <c r="M248" s="13"/>
@@ -5983,7 +5957,7 @@
     </row>
     <row r="250" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="14"/>
-      <c r="B250" s="15"/>
+      <c r="B250" s="16"/>
       <c r="K250" s="13"/>
       <c r="L250" s="13"/>
       <c r="M250" s="13"/>
@@ -5993,7 +5967,7 @@
     </row>
     <row r="251" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="14"/>
-      <c r="B251" s="16"/>
+      <c r="B251" s="15"/>
       <c r="K251" s="13"/>
       <c r="L251" s="13"/>
       <c r="M251" s="13"/>
@@ -6003,7 +5977,10 @@
     </row>
     <row r="252" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="14"/>
-      <c r="B252" s="15"/>
+      <c r="B252" s="17"/>
+      <c r="H252" s="18"/>
+      <c r="I252" s="18"/>
+      <c r="J252" s="18"/>
       <c r="K252" s="13"/>
       <c r="L252" s="13"/>
       <c r="M252" s="13"/>
@@ -6012,11 +5989,16 @@
       <c r="P252" s="13"/>
     </row>
     <row r="253" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A253" s="14"/>
-      <c r="B253" s="17"/>
-      <c r="H253" s="18"/>
-      <c r="I253" s="18"/>
-      <c r="J253" s="18"/>
+      <c r="A253" s="18"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="18"/>
+      <c r="D253" s="18"/>
+      <c r="E253" s="18"/>
+      <c r="F253" s="18"/>
+      <c r="G253" s="18"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="11"/>
+      <c r="J253" s="11"/>
       <c r="K253" s="13"/>
       <c r="L253" s="13"/>
       <c r="M253" s="13"/>
@@ -6032,51 +6014,45 @@
       <c r="E254" s="18"/>
       <c r="F254" s="18"/>
       <c r="G254" s="18"/>
-      <c r="H254" s="11"/>
-      <c r="I254" s="11"/>
-      <c r="J254" s="11"/>
-      <c r="K254" s="13"/>
-      <c r="L254" s="13"/>
-      <c r="M254" s="13"/>
-      <c r="N254" s="13"/>
-      <c r="O254" s="13"/>
-      <c r="P254" s="13"/>
+      <c r="H254" s="24"/>
+      <c r="I254" s="18"/>
+      <c r="J254" s="8"/>
+      <c r="K254" s="19"/>
+      <c r="L254" s="19"/>
+      <c r="M254" s="19"/>
+      <c r="N254" s="19"/>
+      <c r="O254" s="19"/>
+      <c r="P254" s="19"/>
+      <c r="Q254" s="8"/>
+      <c r="R254" s="8"/>
+      <c r="S254" s="18"/>
+      <c r="T254" s="8"/>
     </row>
     <row r="255" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A255" s="18"/>
-      <c r="B255" s="10"/>
-      <c r="C255" s="18"/>
-      <c r="D255" s="18"/>
-      <c r="E255" s="18"/>
-      <c r="F255" s="18"/>
-      <c r="G255" s="18"/>
-      <c r="H255" s="24"/>
-      <c r="I255" s="18"/>
-      <c r="J255" s="8"/>
-      <c r="K255" s="19"/>
-      <c r="L255" s="19"/>
-      <c r="M255" s="19"/>
-      <c r="N255" s="19"/>
-      <c r="O255" s="19"/>
-      <c r="P255" s="19"/>
-      <c r="Q255" s="8"/>
-      <c r="R255" s="8"/>
-      <c r="S255" s="18"/>
-      <c r="T255" s="8"/>
+      <c r="A255" s="17"/>
+      <c r="B255" s="17"/>
+      <c r="E255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="11"/>
+      <c r="K255" s="13"/>
+      <c r="L255" s="13"/>
+      <c r="M255" s="13"/>
+      <c r="N255" s="13"/>
+      <c r="O255" s="13"/>
+      <c r="P255" s="13"/>
+      <c r="T255"/>
     </row>
     <row r="256" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="17"/>
-      <c r="B256" s="17"/>
-      <c r="E256" s="11"/>
-      <c r="H256" s="11"/>
-      <c r="I256" s="11"/>
-      <c r="K256" s="13"/>
-      <c r="L256" s="13"/>
-      <c r="M256" s="13"/>
-      <c r="N256" s="13"/>
-      <c r="O256" s="13"/>
-      <c r="P256" s="13"/>
-      <c r="T256"/>
+      <c r="J256"/>
+      <c r="K256" s="20"/>
+      <c r="L256" s="20"/>
+      <c r="M256" s="20"/>
+      <c r="N256" s="20"/>
+      <c r="O256" s="20"/>
+      <c r="P256" s="20"/>
+      <c r="Q256"/>
+      <c r="R256"/>
     </row>
     <row r="257" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="17"/>
@@ -6091,7 +6067,10 @@
       <c r="R257"/>
     </row>
     <row r="258" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A258" s="17"/>
+      <c r="A258" s="14"/>
+      <c r="B258" s="17"/>
+      <c r="E258" s="11"/>
+      <c r="H258" s="11"/>
       <c r="J258"/>
       <c r="K258" s="20"/>
       <c r="L258" s="20"/>
@@ -6120,8 +6099,7 @@
     <row r="260" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="14"/>
       <c r="B260" s="17"/>
-      <c r="E260" s="11"/>
-      <c r="H260" s="11"/>
+      <c r="H260" s="21"/>
       <c r="J260"/>
       <c r="K260" s="20"/>
       <c r="L260" s="20"/>
@@ -6133,9 +6111,14 @@
       <c r="R260"/>
     </row>
     <row r="261" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A261" s="14"/>
-      <c r="B261" s="17"/>
-      <c r="H261" s="21"/>
+      <c r="A261" s="22"/>
+      <c r="B261" s="16"/>
+      <c r="C261" s="22"/>
+      <c r="D261" s="22"/>
+      <c r="E261" s="22"/>
+      <c r="F261" s="22"/>
+      <c r="G261" s="22"/>
+      <c r="H261" s="23"/>
       <c r="J261"/>
       <c r="K261" s="20"/>
       <c r="L261" s="20"/>
@@ -6143,30 +6126,21 @@
       <c r="N261" s="20"/>
       <c r="O261" s="20"/>
       <c r="P261" s="20"/>
-      <c r="Q261"/>
+      <c r="Q261" s="20"/>
       <c r="R261"/>
     </row>
     <row r="262" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262" s="22"/>
-      <c r="B262" s="16"/>
-      <c r="C262" s="22"/>
-      <c r="D262" s="22"/>
-      <c r="E262" s="22"/>
-      <c r="F262" s="22"/>
-      <c r="G262" s="22"/>
-      <c r="H262" s="23"/>
-      <c r="J262"/>
-      <c r="K262" s="20"/>
-      <c r="L262" s="20"/>
-      <c r="M262" s="20"/>
-      <c r="N262" s="20"/>
-      <c r="O262" s="20"/>
-      <c r="P262" s="20"/>
-      <c r="Q262" s="20"/>
-      <c r="R262"/>
+      <c r="B262" s="17"/>
+      <c r="K262" s="13"/>
+      <c r="L262" s="13"/>
+      <c r="M262" s="13"/>
+      <c r="N262" s="13"/>
+      <c r="O262" s="13"/>
+      <c r="P262" s="13"/>
     </row>
     <row r="263" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B263" s="17"/>
+      <c r="A263" s="9"/>
+      <c r="B263" s="10"/>
       <c r="K263" s="13"/>
       <c r="L263" s="13"/>
       <c r="M263" s="13"/>
@@ -6175,8 +6149,8 @@
       <c r="P263" s="13"/>
     </row>
     <row r="264" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A264" s="9"/>
-      <c r="B264" s="10"/>
+      <c r="A264" s="14"/>
+      <c r="B264" s="15"/>
       <c r="K264" s="13"/>
       <c r="L264" s="13"/>
       <c r="M264" s="13"/>
@@ -6196,7 +6170,7 @@
     </row>
     <row r="266" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="14"/>
-      <c r="B266" s="15"/>
+      <c r="B266" s="17"/>
       <c r="K266" s="13"/>
       <c r="L266" s="13"/>
       <c r="M266" s="13"/>
@@ -6206,7 +6180,7 @@
     </row>
     <row r="267" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="14"/>
-      <c r="B267" s="17"/>
+      <c r="B267" s="15"/>
       <c r="K267" s="13"/>
       <c r="L267" s="13"/>
       <c r="M267" s="13"/>
@@ -6216,7 +6190,7 @@
     </row>
     <row r="268" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="14"/>
-      <c r="B268" s="15"/>
+      <c r="B268" s="17"/>
       <c r="K268" s="13"/>
       <c r="L268" s="13"/>
       <c r="M268" s="13"/>
@@ -6225,8 +6199,16 @@
       <c r="P268" s="13"/>
     </row>
     <row r="269" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="14"/>
-      <c r="B269" s="17"/>
+      <c r="A269" s="18"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="18"/>
+      <c r="D269" s="18"/>
+      <c r="E269" s="18"/>
+      <c r="F269" s="18"/>
+      <c r="G269" s="18"/>
+      <c r="H269" s="18"/>
+      <c r="I269" s="18"/>
+      <c r="J269" s="18"/>
       <c r="K269" s="13"/>
       <c r="L269" s="13"/>
       <c r="M269" s="13"/>
@@ -6239,50 +6221,44 @@
       <c r="B270" s="10"/>
       <c r="C270" s="18"/>
       <c r="D270" s="18"/>
-      <c r="E270" s="18"/>
+      <c r="E270" s="24"/>
       <c r="F270" s="18"/>
       <c r="G270" s="18"/>
-      <c r="H270" s="18"/>
+      <c r="H270" s="24"/>
       <c r="I270" s="18"/>
-      <c r="J270" s="18"/>
-      <c r="K270" s="13"/>
-      <c r="L270" s="13"/>
-      <c r="M270" s="13"/>
-      <c r="N270" s="13"/>
-      <c r="O270" s="13"/>
-      <c r="P270" s="13"/>
+      <c r="J270" s="8"/>
+      <c r="K270" s="19"/>
+      <c r="L270" s="19"/>
+      <c r="M270" s="19"/>
+      <c r="N270" s="19"/>
+      <c r="O270" s="19"/>
+      <c r="P270" s="19"/>
+      <c r="Q270" s="8"/>
+      <c r="R270" s="8"/>
+      <c r="S270" s="18"/>
+      <c r="T270" s="8"/>
     </row>
     <row r="271" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="18"/>
-      <c r="B271" s="10"/>
-      <c r="C271" s="18"/>
-      <c r="D271" s="18"/>
-      <c r="E271" s="24"/>
-      <c r="F271" s="18"/>
-      <c r="G271" s="18"/>
-      <c r="H271" s="24"/>
-      <c r="I271" s="18"/>
-      <c r="J271" s="8"/>
-      <c r="K271" s="19"/>
-      <c r="L271" s="19"/>
-      <c r="M271" s="19"/>
-      <c r="N271" s="19"/>
-      <c r="O271" s="19"/>
-      <c r="P271" s="19"/>
-      <c r="Q271" s="8"/>
-      <c r="R271" s="8"/>
-      <c r="S271" s="18"/>
-      <c r="T271" s="8"/>
+      <c r="A271" s="17"/>
+      <c r="B271" s="17"/>
+      <c r="K271" s="13"/>
+      <c r="L271" s="13"/>
+      <c r="M271" s="13"/>
+      <c r="N271" s="13"/>
+      <c r="O271" s="13"/>
+      <c r="P271" s="13"/>
     </row>
     <row r="272" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A272" s="17"/>
-      <c r="B272" s="17"/>
-      <c r="K272" s="13"/>
-      <c r="L272" s="13"/>
-      <c r="M272" s="13"/>
-      <c r="N272" s="13"/>
-      <c r="O272" s="13"/>
-      <c r="P272" s="13"/>
+      <c r="B272" s="13"/>
+      <c r="J272"/>
+      <c r="K272" s="20"/>
+      <c r="L272" s="20"/>
+      <c r="M272" s="20"/>
+      <c r="N272" s="20"/>
+      <c r="O272" s="20"/>
+      <c r="P272" s="20"/>
+      <c r="Q272"/>
+      <c r="R272"/>
     </row>
     <row r="273" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B273" s="13"/>
@@ -6466,31 +6442,29 @@
     </row>
     <row r="288" spans="2:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B288" s="13"/>
-      <c r="J288"/>
-      <c r="K288" s="20"/>
-      <c r="L288" s="20"/>
-      <c r="M288" s="20"/>
-      <c r="N288" s="20"/>
-      <c r="O288" s="20"/>
-      <c r="P288" s="20"/>
-      <c r="Q288"/>
-      <c r="R288"/>
+      <c r="F288" s="11"/>
+      <c r="G288" s="11"/>
+      <c r="K288" s="13"/>
+      <c r="L288" s="13"/>
+      <c r="M288" s="13"/>
+      <c r="N288" s="13"/>
+      <c r="O288" s="13"/>
+      <c r="P288" s="13"/>
     </row>
     <row r="289" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B289" s="13"/>
-      <c r="F289" s="11"/>
-      <c r="G289" s="11"/>
-      <c r="K289" s="13"/>
-      <c r="L289" s="13"/>
+      <c r="A289" s="9"/>
+      <c r="B289" s="10"/>
+      <c r="K289" s="25"/>
+      <c r="L289" s="26"/>
       <c r="M289" s="13"/>
       <c r="N289" s="13"/>
       <c r="O289" s="13"/>
       <c r="P289" s="13"/>
     </row>
     <row r="290" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A290" s="9"/>
-      <c r="B290" s="10"/>
-      <c r="K290" s="25"/>
+      <c r="A290" s="14"/>
+      <c r="B290" s="15"/>
+      <c r="K290" s="27"/>
       <c r="L290" s="26"/>
       <c r="M290" s="13"/>
       <c r="N290" s="13"/>
@@ -6500,7 +6474,7 @@
     <row r="291" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="14"/>
       <c r="B291" s="15"/>
-      <c r="K291" s="27"/>
+      <c r="K291" s="13"/>
       <c r="L291" s="26"/>
       <c r="M291" s="13"/>
       <c r="N291" s="13"/>
@@ -6509,17 +6483,17 @@
     </row>
     <row r="292" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="14"/>
-      <c r="B292" s="15"/>
+      <c r="B292" s="17"/>
       <c r="K292" s="13"/>
-      <c r="L292" s="26"/>
+      <c r="L292" s="13"/>
       <c r="M292" s="13"/>
       <c r="N292" s="13"/>
       <c r="O292" s="13"/>
       <c r="P292" s="13"/>
     </row>
-    <row r="293" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="14"/>
-      <c r="B293" s="17"/>
+      <c r="B293" s="15"/>
       <c r="K293" s="13"/>
       <c r="L293" s="13"/>
       <c r="M293" s="13"/>
@@ -6527,9 +6501,11 @@
       <c r="O293" s="13"/>
       <c r="P293" s="13"/>
     </row>
-    <row r="294" spans="1:20" s="12" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="14"/>
-      <c r="B294" s="15"/>
+      <c r="B294" s="17"/>
+      <c r="H294" s="18"/>
+      <c r="I294" s="18"/>
       <c r="K294" s="13"/>
       <c r="L294" s="13"/>
       <c r="M294" s="13"/>
@@ -6538,10 +6514,15 @@
       <c r="P294" s="13"/>
     </row>
     <row r="295" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A295" s="14"/>
-      <c r="B295" s="17"/>
-      <c r="H295" s="18"/>
-      <c r="I295" s="18"/>
+      <c r="A295" s="18"/>
+      <c r="B295" s="10"/>
+      <c r="C295" s="18"/>
+      <c r="D295" s="18"/>
+      <c r="E295" s="18"/>
+      <c r="F295" s="18"/>
+      <c r="G295" s="18"/>
+      <c r="H295" s="11"/>
+      <c r="I295" s="11"/>
       <c r="K295" s="13"/>
       <c r="L295" s="13"/>
       <c r="M295" s="13"/>
@@ -6554,53 +6535,49 @@
       <c r="B296" s="10"/>
       <c r="C296" s="18"/>
       <c r="D296" s="18"/>
-      <c r="E296" s="18"/>
+      <c r="E296" s="24"/>
       <c r="F296" s="18"/>
       <c r="G296" s="18"/>
-      <c r="H296" s="11"/>
-      <c r="I296" s="11"/>
-      <c r="K296" s="13"/>
-      <c r="L296" s="13"/>
-      <c r="M296" s="13"/>
-      <c r="N296" s="13"/>
-      <c r="O296" s="13"/>
-      <c r="P296" s="13"/>
+      <c r="H296" s="24"/>
+      <c r="I296" s="18"/>
+      <c r="J296" s="8"/>
+      <c r="K296" s="19"/>
+      <c r="L296" s="19"/>
+      <c r="M296" s="19"/>
+      <c r="N296" s="19"/>
+      <c r="O296" s="19"/>
+      <c r="P296" s="19"/>
+      <c r="Q296" s="8"/>
+      <c r="R296" s="8"/>
+      <c r="S296" s="18"/>
+      <c r="T296" s="8"/>
     </row>
     <row r="297" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A297" s="18"/>
-      <c r="B297" s="10"/>
-      <c r="C297" s="18"/>
-      <c r="D297" s="18"/>
-      <c r="E297" s="24"/>
-      <c r="F297" s="18"/>
-      <c r="G297" s="18"/>
-      <c r="H297" s="24"/>
-      <c r="I297" s="18"/>
-      <c r="J297" s="8"/>
-      <c r="K297" s="19"/>
-      <c r="L297" s="19"/>
-      <c r="M297" s="19"/>
-      <c r="N297" s="19"/>
-      <c r="O297" s="19"/>
-      <c r="P297" s="19"/>
-      <c r="Q297" s="8"/>
-      <c r="R297" s="8"/>
-      <c r="S297" s="18"/>
-      <c r="T297" s="8"/>
+      <c r="A297" s="17"/>
+      <c r="B297" s="17"/>
+      <c r="G297" s="17"/>
+      <c r="H297" s="11"/>
+      <c r="I297" s="11"/>
+      <c r="J297" s="11"/>
+      <c r="K297" s="13"/>
+      <c r="L297" s="13"/>
+      <c r="M297" s="13"/>
+      <c r="N297" s="13"/>
+      <c r="O297" s="13"/>
+      <c r="P297" s="13"/>
     </row>
     <row r="298" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A298" s="17"/>
-      <c r="B298" s="17"/>
-      <c r="G298" s="17"/>
+      <c r="B298" s="13"/>
       <c r="H298" s="11"/>
-      <c r="I298" s="11"/>
-      <c r="J298" s="11"/>
-      <c r="K298" s="13"/>
-      <c r="L298" s="13"/>
-      <c r="M298" s="13"/>
-      <c r="N298" s="13"/>
-      <c r="O298" s="13"/>
-      <c r="P298" s="13"/>
+      <c r="J298"/>
+      <c r="K298" s="20"/>
+      <c r="L298" s="20"/>
+      <c r="M298" s="20"/>
+      <c r="N298" s="20"/>
+      <c r="O298" s="20"/>
+      <c r="P298" s="20"/>
+      <c r="Q298"/>
+      <c r="R298"/>
     </row>
     <row r="299" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B299" s="13"/>
@@ -6616,7 +6593,9 @@
       <c r="R299"/>
     </row>
     <row r="300" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B300" s="13"/>
+      <c r="A300" s="17"/>
+      <c r="B300" s="17"/>
+      <c r="G300" s="17"/>
       <c r="H300" s="11"/>
       <c r="J300"/>
       <c r="K300" s="20"/>
@@ -7529,10 +7508,7 @@
       <c r="R360"/>
     </row>
     <row r="361" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A361" s="17"/>
-      <c r="B361" s="17"/>
-      <c r="G361" s="17"/>
-      <c r="H361" s="11"/>
+      <c r="B361" s="13"/>
       <c r="J361"/>
       <c r="K361" s="20"/>
       <c r="L361" s="20"/>
@@ -7544,27 +7520,15 @@
       <c r="R361"/>
     </row>
     <row r="362" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B362" s="13"/>
-      <c r="J362"/>
-      <c r="K362" s="20"/>
-      <c r="L362" s="20"/>
-      <c r="M362" s="20"/>
-      <c r="N362" s="20"/>
-      <c r="O362" s="20"/>
-      <c r="P362" s="20"/>
-      <c r="Q362"/>
-      <c r="R362"/>
-    </row>
-    <row r="363" spans="1:18" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B363" s="17"/>
-      <c r="F363" s="11"/>
-      <c r="G363" s="11"/>
-      <c r="K363" s="13"/>
-      <c r="L363" s="13"/>
-      <c r="M363" s="13"/>
-      <c r="N363" s="13"/>
-      <c r="O363" s="13"/>
-      <c r="P363" s="13"/>
+      <c r="B362" s="17"/>
+      <c r="F362" s="11"/>
+      <c r="G362" s="11"/>
+      <c r="K362" s="13"/>
+      <c r="L362" s="13"/>
+      <c r="M362" s="13"/>
+      <c r="N362" s="13"/>
+      <c r="O362" s="13"/>
+      <c r="P362" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
